--- a/currentbuild/StructureDefinition-VkpVitalSignsObservationBloodpressure.xlsx
+++ b/currentbuild/StructureDefinition-VkpVitalSignsObservationBloodpressure.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$190</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$206</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7114" uniqueCount="719">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7712" uniqueCount="725">
   <si>
     <t>Property</t>
   </si>
@@ -933,7 +933,7 @@
     <t>Observation.code.coding.userSelected</t>
   </si>
   <si>
-    <t>BPSNOMEDCode</t>
+    <t>BPSCTCode</t>
   </si>
   <si>
     <t>http://snomed.info/sct</t>
@@ -2117,6 +2117,15 @@
     <t>Observation.component.code.coding.userSelected</t>
   </si>
   <si>
+    <t>SBPSCTCode</t>
+  </si>
+  <si>
+    <t>Systolic Blood Pressure SNOMED CT code</t>
+  </si>
+  <si>
+    <t>271649006</t>
+  </si>
+  <si>
     <t>Observation.component.code.text</t>
   </si>
   <si>
@@ -2264,6 +2273,15 @@
   </si>
   <si>
     <t>8462-4</t>
+  </si>
+  <si>
+    <t>DBPSCTCode</t>
+  </si>
+  <si>
+    <t>Diastolic Blood Pressure SNOMED CT code</t>
+  </si>
+  <si>
+    <t>271650006</t>
   </si>
 </sst>
 </file>
@@ -2575,7 +2593,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO190"/>
+  <dimension ref="A1:AO206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2585,7 +2603,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="47.40625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="16.23046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.97265625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -19188,7 +19206,7 @@
       </c>
       <c r="D142" s="2"/>
       <c r="E142" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F142" t="s" s="2">
         <v>78</v>
@@ -20237,11 +20255,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="151" hidden="true">
+    <row r="151">
       <c r="A151" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="B151" t="s" s="2">
         <v>670</v>
       </c>
-      <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
         <v>79</v>
       </c>
@@ -20250,10 +20270,10 @@
         <v>77</v>
       </c>
       <c r="F151" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G151" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H151" t="s" s="2">
         <v>79</v>
@@ -20262,19 +20282,19 @@
         <v>90</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>91</v>
+        <v>209</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>260</v>
+        <v>671</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>261</v>
+        <v>660</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>262</v>
+        <v>212</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>263</v>
+        <v>213</v>
       </c>
       <c r="O151" t="s" s="2">
         <v>79</v>
@@ -20323,13 +20343,13 @@
         <v>79</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>264</v>
+        <v>214</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH151" t="s" s="2">
         <v>79</v>
@@ -20344,10 +20364,10 @@
         <v>79</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>265</v>
+        <v>215</v>
       </c>
       <c r="AM151" t="s" s="2">
-        <v>266</v>
+        <v>216</v>
       </c>
       <c r="AN151" t="s" s="2">
         <v>79</v>
@@ -20356,9 +20376,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>636</v>
+        <v>662</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -20372,29 +20392,25 @@
         <v>89</v>
       </c>
       <c r="G152" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H152" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I152" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>451</v>
+        <v>91</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>638</v>
+        <v>199</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="M152" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="N152" t="s" s="2">
-        <v>454</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="M152" s="2"/>
+      <c r="N152" s="2"/>
       <c r="O152" t="s" s="2">
         <v>79</v>
       </c>
@@ -20418,13 +20434,13 @@
         <v>79</v>
       </c>
       <c r="W152" t="s" s="2">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="X152" t="s" s="2">
-        <v>641</v>
+        <v>79</v>
       </c>
       <c r="Y152" t="s" s="2">
-        <v>642</v>
+        <v>79</v>
       </c>
       <c r="Z152" t="s" s="2">
         <v>79</v>
@@ -20442,7 +20458,7 @@
         <v>79</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>636</v>
+        <v>201</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>77</v>
@@ -20451,44 +20467,44 @@
         <v>89</v>
       </c>
       <c r="AH152" t="s" s="2">
-        <v>643</v>
+        <v>79</v>
       </c>
       <c r="AI152" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ152" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK152" t="s" s="2">
-        <v>644</v>
+        <v>79</v>
       </c>
       <c r="AL152" t="s" s="2">
-        <v>459</v>
+        <v>79</v>
       </c>
       <c r="AM152" t="s" s="2">
-        <v>460</v>
+        <v>202</v>
       </c>
       <c r="AN152" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO152" t="s" s="2">
-        <v>461</v>
+        <v>79</v>
       </c>
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F153" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G153" t="s" s="2">
         <v>79</v>
@@ -20500,15 +20516,17 @@
         <v>79</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>199</v>
+        <v>136</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="M153" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="M153" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="N153" s="2"/>
       <c r="O153" t="s" s="2">
         <v>79</v>
@@ -20545,31 +20563,31 @@
         <v>79</v>
       </c>
       <c r="AA153" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="AB153" t="s" s="2">
-        <v>79</v>
+        <v>206</v>
       </c>
       <c r="AC153" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD153" t="s" s="2">
-        <v>79</v>
+        <v>194</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG153" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH153" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI153" t="s" s="2">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="AJ153" t="s" s="2">
         <v>79</v>
@@ -20590,49 +20608,51 @@
         <v>79</v>
       </c>
     </row>
-    <row r="154" hidden="true">
+    <row r="154">
       <c r="A154" t="s" s="2">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F154" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G154" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H154" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I154" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>136</v>
+        <v>220</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N154" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="N154" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="O154" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P154" s="2"/>
       <c r="Q154" t="s" s="2">
-        <v>79</v>
+        <v>297</v>
       </c>
       <c r="R154" t="s" s="2">
         <v>79</v>
@@ -20662,31 +20682,31 @@
         <v>79</v>
       </c>
       <c r="AA154" t="s" s="2">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="AB154" t="s" s="2">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="AC154" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD154" t="s" s="2">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG154" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH154" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI154" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AJ154" t="s" s="2">
         <v>79</v>
@@ -20695,10 +20715,10 @@
         <v>79</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>79</v>
+        <v>226</v>
       </c>
       <c r="AM154" t="s" s="2">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="AN154" t="s" s="2">
         <v>79</v>
@@ -20707,9 +20727,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -20717,13 +20737,13 @@
       </c>
       <c r="D155" s="2"/>
       <c r="E155" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F155" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G155" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H155" t="s" s="2">
         <v>79</v>
@@ -20732,20 +20752,18 @@
         <v>90</v>
       </c>
       <c r="J155" t="s" s="2">
-        <v>674</v>
+        <v>91</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>675</v>
+        <v>229</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>676</v>
+        <v>230</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>677</v>
-      </c>
-      <c r="N155" t="s" s="2">
-        <v>678</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="N155" s="2"/>
       <c r="O155" t="s" s="2">
         <v>79</v>
       </c>
@@ -20793,7 +20811,7 @@
         <v>79</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>679</v>
+        <v>232</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>77</v>
@@ -20814,10 +20832,10 @@
         <v>79</v>
       </c>
       <c r="AL155" t="s" s="2">
-        <v>680</v>
+        <v>233</v>
       </c>
       <c r="AM155" t="s" s="2">
-        <v>681</v>
+        <v>234</v>
       </c>
       <c r="AN155" t="s" s="2">
         <v>79</v>
@@ -20826,9 +20844,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="156" hidden="true">
+    <row r="156">
       <c r="A156" t="s" s="2">
-        <v>682</v>
+        <v>666</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -20836,16 +20854,16 @@
       </c>
       <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F156" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G156" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H156" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I156" t="s" s="2">
         <v>90</v>
@@ -20854,23 +20872,21 @@
         <v>109</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>683</v>
+        <v>236</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>684</v>
+        <v>237</v>
       </c>
       <c r="M156" s="2"/>
       <c r="N156" t="s" s="2">
-        <v>685</v>
+        <v>238</v>
       </c>
       <c r="O156" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P156" t="s" s="2">
-        <v>686</v>
-      </c>
+      <c r="P156" s="2"/>
       <c r="Q156" t="s" s="2">
-        <v>79</v>
+        <v>672</v>
       </c>
       <c r="R156" t="s" s="2">
         <v>79</v>
@@ -20888,13 +20904,13 @@
         <v>79</v>
       </c>
       <c r="W156" t="s" s="2">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="X156" t="s" s="2">
-        <v>687</v>
+        <v>79</v>
       </c>
       <c r="Y156" t="s" s="2">
-        <v>688</v>
+        <v>79</v>
       </c>
       <c r="Z156" t="s" s="2">
         <v>79</v>
@@ -20912,7 +20928,7 @@
         <v>79</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>689</v>
+        <v>240</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>77</v>
@@ -20933,10 +20949,10 @@
         <v>79</v>
       </c>
       <c r="AL156" t="s" s="2">
-        <v>690</v>
+        <v>241</v>
       </c>
       <c r="AM156" t="s" s="2">
-        <v>691</v>
+        <v>242</v>
       </c>
       <c r="AN156" t="s" s="2">
         <v>79</v>
@@ -20945,9 +20961,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>692</v>
+        <v>668</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -20955,13 +20971,13 @@
       </c>
       <c r="D157" s="2"/>
       <c r="E157" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F157" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G157" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H157" t="s" s="2">
         <v>79</v>
@@ -20973,14 +20989,14 @@
         <v>91</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>693</v>
+        <v>244</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>694</v>
+        <v>245</v>
       </c>
       <c r="M157" s="2"/>
       <c r="N157" t="s" s="2">
-        <v>695</v>
+        <v>246</v>
       </c>
       <c r="O157" t="s" s="2">
         <v>79</v>
@@ -21029,7 +21045,7 @@
         <v>79</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>696</v>
+        <v>247</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>77</v>
@@ -21050,10 +21066,10 @@
         <v>79</v>
       </c>
       <c r="AL157" t="s" s="2">
-        <v>697</v>
+        <v>248</v>
       </c>
       <c r="AM157" t="s" s="2">
-        <v>698</v>
+        <v>249</v>
       </c>
       <c r="AN157" t="s" s="2">
         <v>79</v>
@@ -21062,9 +21078,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>699</v>
+        <v>669</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -21072,13 +21088,13 @@
       </c>
       <c r="D158" s="2"/>
       <c r="E158" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F158" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G158" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H158" t="s" s="2">
         <v>79</v>
@@ -21087,24 +21103,26 @@
         <v>90</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>103</v>
+        <v>251</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>700</v>
+        <v>252</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>701</v>
-      </c>
-      <c r="M158" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="M158" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="N158" t="s" s="2">
-        <v>702</v>
+        <v>255</v>
       </c>
       <c r="O158" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P158" s="2"/>
       <c r="Q158" t="s" s="2">
-        <v>703</v>
+        <v>79</v>
       </c>
       <c r="R158" t="s" s="2">
         <v>79</v>
@@ -21146,7 +21164,7 @@
         <v>79</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>704</v>
+        <v>256</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>77</v>
@@ -21155,7 +21173,7 @@
         <v>89</v>
       </c>
       <c r="AH158" t="s" s="2">
-        <v>705</v>
+        <v>79</v>
       </c>
       <c r="AI158" t="s" s="2">
         <v>101</v>
@@ -21167,10 +21185,10 @@
         <v>79</v>
       </c>
       <c r="AL158" t="s" s="2">
-        <v>697</v>
+        <v>257</v>
       </c>
       <c r="AM158" t="s" s="2">
-        <v>706</v>
+        <v>258</v>
       </c>
       <c r="AN158" t="s" s="2">
         <v>79</v>
@@ -21179,9 +21197,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>707</v>
+        <v>673</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -21189,13 +21207,13 @@
       </c>
       <c r="D159" s="2"/>
       <c r="E159" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F159" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G159" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H159" t="s" s="2">
         <v>79</v>
@@ -21204,26 +21222,26 @@
         <v>90</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>708</v>
+        <v>260</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>708</v>
+        <v>261</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>709</v>
+        <v>262</v>
       </c>
       <c r="N159" t="s" s="2">
-        <v>710</v>
+        <v>263</v>
       </c>
       <c r="O159" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P159" s="2"/>
       <c r="Q159" t="s" s="2">
-        <v>711</v>
+        <v>79</v>
       </c>
       <c r="R159" t="s" s="2">
         <v>79</v>
@@ -21265,7 +21283,7 @@
         <v>79</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>712</v>
+        <v>264</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>77</v>
@@ -21286,10 +21304,10 @@
         <v>79</v>
       </c>
       <c r="AL159" t="s" s="2">
-        <v>697</v>
+        <v>265</v>
       </c>
       <c r="AM159" t="s" s="2">
-        <v>713</v>
+        <v>266</v>
       </c>
       <c r="AN159" t="s" s="2">
         <v>79</v>
@@ -21300,7 +21318,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -21320,22 +21338,22 @@
         <v>79</v>
       </c>
       <c r="I160" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>186</v>
+        <v>451</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="O160" t="s" s="2">
         <v>79</v>
@@ -21360,13 +21378,13 @@
         <v>79</v>
       </c>
       <c r="W160" t="s" s="2">
-        <v>273</v>
+        <v>178</v>
       </c>
       <c r="X160" t="s" s="2">
-        <v>468</v>
+        <v>641</v>
       </c>
       <c r="Y160" t="s" s="2">
-        <v>469</v>
+        <v>642</v>
       </c>
       <c r="Z160" t="s" s="2">
         <v>79</v>
@@ -21384,7 +21402,7 @@
         <v>79</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>77</v>
@@ -21393,7 +21411,7 @@
         <v>89</v>
       </c>
       <c r="AH160" t="s" s="2">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="AI160" t="s" s="2">
         <v>101</v>
@@ -21402,35 +21420,35 @@
         <v>79</v>
       </c>
       <c r="AK160" t="s" s="2">
-        <v>79</v>
+        <v>644</v>
       </c>
       <c r="AL160" t="s" s="2">
-        <v>132</v>
+        <v>459</v>
       </c>
       <c r="AM160" t="s" s="2">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="AN160" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO160" t="s" s="2">
-        <v>79</v>
+        <v>461</v>
       </c>
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>650</v>
+        <v>674</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
-        <v>473</v>
+        <v>79</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F161" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G161" t="s" s="2">
         <v>79</v>
@@ -21442,20 +21460,16 @@
         <v>79</v>
       </c>
       <c r="J161" t="s" s="2">
-        <v>186</v>
+        <v>91</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>474</v>
+        <v>199</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="M161" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="N161" t="s" s="2">
-        <v>477</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="M161" s="2"/>
+      <c r="N161" s="2"/>
       <c r="O161" t="s" s="2">
         <v>79</v>
       </c>
@@ -21479,13 +21493,13 @@
         <v>79</v>
       </c>
       <c r="W161" t="s" s="2">
-        <v>273</v>
+        <v>79</v>
       </c>
       <c r="X161" t="s" s="2">
-        <v>478</v>
+        <v>79</v>
       </c>
       <c r="Y161" t="s" s="2">
-        <v>479</v>
+        <v>79</v>
       </c>
       <c r="Z161" t="s" s="2">
         <v>79</v>
@@ -21503,46 +21517,46 @@
         <v>79</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>650</v>
+        <v>201</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG161" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH161" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI161" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ161" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK161" t="s" s="2">
-        <v>480</v>
+        <v>79</v>
       </c>
       <c r="AL161" t="s" s="2">
-        <v>481</v>
+        <v>79</v>
       </c>
       <c r="AM161" t="s" s="2">
-        <v>482</v>
+        <v>202</v>
       </c>
       <c r="AN161" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO161" t="s" s="2">
-        <v>483</v>
+        <v>79</v>
       </c>
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>651</v>
+        <v>675</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" t="s" s="2">
@@ -21561,20 +21575,18 @@
         <v>79</v>
       </c>
       <c r="J162" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>652</v>
+        <v>136</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>653</v>
+        <v>204</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="N162" t="s" s="2">
-        <v>556</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="N162" s="2"/>
       <c r="O162" t="s" s="2">
         <v>79</v>
       </c>
@@ -21610,19 +21622,19 @@
         <v>79</v>
       </c>
       <c r="AA162" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="AB162" t="s" s="2">
-        <v>79</v>
+        <v>206</v>
       </c>
       <c r="AC162" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD162" t="s" s="2">
-        <v>79</v>
+        <v>194</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>651</v>
+        <v>207</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>77</v>
@@ -21634,7 +21646,7 @@
         <v>79</v>
       </c>
       <c r="AI162" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AJ162" t="s" s="2">
         <v>79</v>
@@ -21643,10 +21655,10 @@
         <v>79</v>
       </c>
       <c r="AL162" t="s" s="2">
-        <v>558</v>
+        <v>79</v>
       </c>
       <c r="AM162" t="s" s="2">
-        <v>559</v>
+        <v>202</v>
       </c>
       <c r="AN162" t="s" s="2">
         <v>79</v>
@@ -21657,11 +21669,9 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="B163" t="s" s="2">
-        <v>714</v>
-      </c>
+        <v>676</v>
+      </c>
+      <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
         <v>79</v>
       </c>
@@ -21682,19 +21692,19 @@
         <v>90</v>
       </c>
       <c r="J163" t="s" s="2">
-        <v>552</v>
+        <v>677</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>620</v>
+        <v>678</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>620</v>
+        <v>679</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>621</v>
+        <v>680</v>
       </c>
       <c r="N163" t="s" s="2">
-        <v>622</v>
+        <v>681</v>
       </c>
       <c r="O163" t="s" s="2">
         <v>79</v>
@@ -21743,19 +21753,19 @@
         <v>79</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>618</v>
+        <v>682</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG163" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH163" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI163" t="s" s="2">
-        <v>624</v>
+        <v>101</v>
       </c>
       <c r="AJ163" t="s" s="2">
         <v>79</v>
@@ -21764,10 +21774,10 @@
         <v>79</v>
       </c>
       <c r="AL163" t="s" s="2">
-        <v>625</v>
+        <v>683</v>
       </c>
       <c r="AM163" t="s" s="2">
-        <v>626</v>
+        <v>684</v>
       </c>
       <c r="AN163" t="s" s="2">
         <v>79</v>
@@ -21778,7 +21788,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>627</v>
+        <v>685</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -21795,26 +21805,30 @@
         <v>79</v>
       </c>
       <c r="H164" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I164" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J164" t="s" s="2">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>199</v>
+        <v>686</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>200</v>
+        <v>687</v>
       </c>
       <c r="M164" s="2"/>
-      <c r="N164" s="2"/>
+      <c r="N164" t="s" s="2">
+        <v>688</v>
+      </c>
       <c r="O164" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P164" s="2"/>
+      <c r="P164" t="s" s="2">
+        <v>689</v>
+      </c>
       <c r="Q164" t="s" s="2">
         <v>79</v>
       </c>
@@ -21834,13 +21848,13 @@
         <v>79</v>
       </c>
       <c r="W164" t="s" s="2">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="X164" t="s" s="2">
-        <v>79</v>
+        <v>690</v>
       </c>
       <c r="Y164" t="s" s="2">
-        <v>79</v>
+        <v>691</v>
       </c>
       <c r="Z164" t="s" s="2">
         <v>79</v>
@@ -21858,7 +21872,7 @@
         <v>79</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>201</v>
+        <v>692</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>77</v>
@@ -21870,7 +21884,7 @@
         <v>79</v>
       </c>
       <c r="AI164" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AJ164" t="s" s="2">
         <v>79</v>
@@ -21879,10 +21893,10 @@
         <v>79</v>
       </c>
       <c r="AL164" t="s" s="2">
-        <v>79</v>
+        <v>693</v>
       </c>
       <c r="AM164" t="s" s="2">
-        <v>202</v>
+        <v>694</v>
       </c>
       <c r="AN164" t="s" s="2">
         <v>79</v>
@@ -21891,43 +21905,43 @@
         <v>79</v>
       </c>
     </row>
-    <row r="165" hidden="true">
+    <row r="165">
       <c r="A165" t="s" s="2">
-        <v>628</v>
+        <v>695</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F165" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G165" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H165" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I165" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J165" t="s" s="2">
-        <v>135</v>
+        <v>91</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>136</v>
+        <v>696</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="M165" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N165" s="2"/>
+        <v>697</v>
+      </c>
+      <c r="M165" s="2"/>
+      <c r="N165" t="s" s="2">
+        <v>698</v>
+      </c>
       <c r="O165" t="s" s="2">
         <v>79</v>
       </c>
@@ -21975,19 +21989,19 @@
         <v>79</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>207</v>
+        <v>699</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG165" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH165" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI165" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AJ165" t="s" s="2">
         <v>79</v>
@@ -21996,10 +22010,10 @@
         <v>79</v>
       </c>
       <c r="AL165" t="s" s="2">
-        <v>79</v>
+        <v>700</v>
       </c>
       <c r="AM165" t="s" s="2">
-        <v>202</v>
+        <v>701</v>
       </c>
       <c r="AN165" t="s" s="2">
         <v>79</v>
@@ -22008,51 +22022,49 @@
         <v>79</v>
       </c>
     </row>
-    <row r="166" hidden="true">
+    <row r="166">
       <c r="A166" t="s" s="2">
-        <v>629</v>
+        <v>702</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
-        <v>563</v>
+        <v>79</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F166" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G166" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H166" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I166" t="s" s="2">
         <v>90</v>
       </c>
       <c r="J166" t="s" s="2">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>564</v>
+        <v>703</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="M166" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>704</v>
+      </c>
+      <c r="M166" s="2"/>
       <c r="N166" t="s" s="2">
-        <v>144</v>
+        <v>705</v>
       </c>
       <c r="O166" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P166" s="2"/>
       <c r="Q166" t="s" s="2">
-        <v>79</v>
+        <v>706</v>
       </c>
       <c r="R166" t="s" s="2">
         <v>79</v>
@@ -22094,19 +22106,19 @@
         <v>79</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>566</v>
+        <v>707</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG166" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH166" t="s" s="2">
-        <v>79</v>
+        <v>708</v>
       </c>
       <c r="AI166" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AJ166" t="s" s="2">
         <v>79</v>
@@ -22115,10 +22127,10 @@
         <v>79</v>
       </c>
       <c r="AL166" t="s" s="2">
-        <v>79</v>
+        <v>700</v>
       </c>
       <c r="AM166" t="s" s="2">
-        <v>132</v>
+        <v>709</v>
       </c>
       <c r="AN166" t="s" s="2">
         <v>79</v>
@@ -22129,7 +22141,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>630</v>
+        <v>710</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -22152,26 +22164,26 @@
         <v>90</v>
       </c>
       <c r="J167" t="s" s="2">
-        <v>186</v>
+        <v>109</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>631</v>
+        <v>711</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>632</v>
+        <v>711</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>271</v>
+        <v>712</v>
       </c>
       <c r="N167" t="s" s="2">
-        <v>634</v>
+        <v>713</v>
       </c>
       <c r="O167" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P167" s="2"/>
       <c r="Q167" t="s" s="2">
-        <v>79</v>
+        <v>714</v>
       </c>
       <c r="R167" t="s" s="2">
         <v>79</v>
@@ -22189,13 +22201,13 @@
         <v>79</v>
       </c>
       <c r="W167" t="s" s="2">
-        <v>273</v>
+        <v>79</v>
       </c>
       <c r="X167" t="s" s="2">
-        <v>274</v>
+        <v>79</v>
       </c>
       <c r="Y167" t="s" s="2">
-        <v>275</v>
+        <v>79</v>
       </c>
       <c r="Z167" t="s" s="2">
         <v>79</v>
@@ -22213,10 +22225,10 @@
         <v>79</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>630</v>
+        <v>715</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="AG167" t="s" s="2">
         <v>89</v>
@@ -22231,24 +22243,24 @@
         <v>79</v>
       </c>
       <c r="AK167" t="s" s="2">
-        <v>635</v>
+        <v>79</v>
       </c>
       <c r="AL167" t="s" s="2">
-        <v>278</v>
+        <v>700</v>
       </c>
       <c r="AM167" t="s" s="2">
-        <v>279</v>
+        <v>716</v>
       </c>
       <c r="AN167" t="s" s="2">
-        <v>280</v>
+        <v>79</v>
       </c>
       <c r="AO167" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="168" hidden="true">
+    <row r="168">
       <c r="A168" t="s" s="2">
-        <v>656</v>
+        <v>645</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -22262,7 +22274,7 @@
         <v>89</v>
       </c>
       <c r="G168" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H168" t="s" s="2">
         <v>79</v>
@@ -22271,16 +22283,20 @@
         <v>79</v>
       </c>
       <c r="J168" t="s" s="2">
-        <v>91</v>
+        <v>186</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>199</v>
+        <v>646</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="M168" s="2"/>
-      <c r="N168" s="2"/>
+        <v>647</v>
+      </c>
+      <c r="M168" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="N168" t="s" s="2">
+        <v>467</v>
+      </c>
       <c r="O168" t="s" s="2">
         <v>79</v>
       </c>
@@ -22304,13 +22320,13 @@
         <v>79</v>
       </c>
       <c r="W168" t="s" s="2">
-        <v>79</v>
+        <v>273</v>
       </c>
       <c r="X168" t="s" s="2">
-        <v>79</v>
+        <v>468</v>
       </c>
       <c r="Y168" t="s" s="2">
-        <v>79</v>
+        <v>469</v>
       </c>
       <c r="Z168" t="s" s="2">
         <v>79</v>
@@ -22328,7 +22344,7 @@
         <v>79</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>201</v>
+        <v>645</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>77</v>
@@ -22337,10 +22353,10 @@
         <v>89</v>
       </c>
       <c r="AH168" t="s" s="2">
-        <v>79</v>
+        <v>649</v>
       </c>
       <c r="AI168" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AJ168" t="s" s="2">
         <v>79</v>
@@ -22349,10 +22365,10 @@
         <v>79</v>
       </c>
       <c r="AL168" t="s" s="2">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="AM168" t="s" s="2">
-        <v>202</v>
+        <v>471</v>
       </c>
       <c r="AN168" t="s" s="2">
         <v>79</v>
@@ -22363,11 +22379,11 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
-        <v>134</v>
+        <v>473</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" t="s" s="2">
@@ -22386,18 +22402,20 @@
         <v>79</v>
       </c>
       <c r="J169" t="s" s="2">
-        <v>135</v>
+        <v>186</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>136</v>
+        <v>474</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>204</v>
+        <v>475</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N169" s="2"/>
+        <v>476</v>
+      </c>
+      <c r="N169" t="s" s="2">
+        <v>477</v>
+      </c>
       <c r="O169" t="s" s="2">
         <v>79</v>
       </c>
@@ -22421,31 +22439,31 @@
         <v>79</v>
       </c>
       <c r="W169" t="s" s="2">
-        <v>79</v>
+        <v>273</v>
       </c>
       <c r="X169" t="s" s="2">
-        <v>79</v>
+        <v>478</v>
       </c>
       <c r="Y169" t="s" s="2">
-        <v>79</v>
+        <v>479</v>
       </c>
       <c r="Z169" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA169" t="s" s="2">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="AB169" t="s" s="2">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="AC169" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD169" t="s" s="2">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>207</v>
+        <v>650</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>77</v>
@@ -22457,30 +22475,30 @@
         <v>79</v>
       </c>
       <c r="AI169" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AJ169" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK169" t="s" s="2">
-        <v>79</v>
+        <v>480</v>
       </c>
       <c r="AL169" t="s" s="2">
-        <v>79</v>
+        <v>481</v>
       </c>
       <c r="AM169" t="s" s="2">
-        <v>202</v>
+        <v>482</v>
       </c>
       <c r="AN169" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO169" t="s" s="2">
-        <v>79</v>
+        <v>483</v>
       </c>
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -22500,22 +22518,22 @@
         <v>79</v>
       </c>
       <c r="I170" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J170" t="s" s="2">
-        <v>209</v>
+        <v>79</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>715</v>
+        <v>652</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>716</v>
+        <v>653</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>212</v>
+        <v>555</v>
       </c>
       <c r="N170" t="s" s="2">
-        <v>213</v>
+        <v>556</v>
       </c>
       <c r="O170" t="s" s="2">
         <v>79</v>
@@ -22552,17 +22570,19 @@
         <v>79</v>
       </c>
       <c r="AA170" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="AB170" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB170" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC170" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD170" t="s" s="2">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>214</v>
+        <v>651</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>77</v>
@@ -22583,10 +22603,10 @@
         <v>79</v>
       </c>
       <c r="AL170" t="s" s="2">
-        <v>215</v>
+        <v>558</v>
       </c>
       <c r="AM170" t="s" s="2">
-        <v>216</v>
+        <v>559</v>
       </c>
       <c r="AN170" t="s" s="2">
         <v>79</v>
@@ -22595,9 +22615,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="171" hidden="true">
+    <row r="171">
       <c r="A171" t="s" s="2">
-        <v>658</v>
+        <v>618</v>
       </c>
       <c r="B171" t="s" s="2">
         <v>717</v>
@@ -22613,7 +22633,7 @@
         <v>89</v>
       </c>
       <c r="G171" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H171" t="s" s="2">
         <v>79</v>
@@ -22622,19 +22642,19 @@
         <v>90</v>
       </c>
       <c r="J171" t="s" s="2">
-        <v>209</v>
+        <v>552</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>715</v>
+        <v>620</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>716</v>
+        <v>620</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>212</v>
+        <v>621</v>
       </c>
       <c r="N171" t="s" s="2">
-        <v>213</v>
+        <v>622</v>
       </c>
       <c r="O171" t="s" s="2">
         <v>79</v>
@@ -22683,7 +22703,7 @@
         <v>79</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>214</v>
+        <v>618</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>77</v>
@@ -22695,7 +22715,7 @@
         <v>79</v>
       </c>
       <c r="AI171" t="s" s="2">
-        <v>101</v>
+        <v>624</v>
       </c>
       <c r="AJ171" t="s" s="2">
         <v>79</v>
@@ -22704,10 +22724,10 @@
         <v>79</v>
       </c>
       <c r="AL171" t="s" s="2">
-        <v>215</v>
+        <v>625</v>
       </c>
       <c r="AM171" t="s" s="2">
-        <v>216</v>
+        <v>626</v>
       </c>
       <c r="AN171" t="s" s="2">
         <v>79</v>
@@ -22718,7 +22738,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>662</v>
+        <v>627</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -22833,7 +22853,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>663</v>
+        <v>628</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -22903,16 +22923,16 @@
         <v>79</v>
       </c>
       <c r="AA173" t="s" s="2">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="AB173" t="s" s="2">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="AC173" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD173" t="s" s="2">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="AE173" t="s" s="2">
         <v>207</v>
@@ -22950,49 +22970,49 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>664</v>
+        <v>629</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
-        <v>79</v>
+        <v>563</v>
       </c>
       <c r="D174" s="2"/>
       <c r="E174" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F174" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G174" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H174" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I174" t="s" s="2">
         <v>90</v>
       </c>
       <c r="J174" t="s" s="2">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>220</v>
+        <v>564</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>221</v>
+        <v>565</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>222</v>
+        <v>138</v>
       </c>
       <c r="N174" t="s" s="2">
-        <v>223</v>
+        <v>144</v>
       </c>
       <c r="O174" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P174" s="2"/>
       <c r="Q174" t="s" s="2">
-        <v>290</v>
+        <v>79</v>
       </c>
       <c r="R174" t="s" s="2">
         <v>79</v>
@@ -23034,19 +23054,19 @@
         <v>79</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>225</v>
+        <v>566</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG174" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH174" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI174" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AJ174" t="s" s="2">
         <v>79</v>
@@ -23055,10 +23075,10 @@
         <v>79</v>
       </c>
       <c r="AL174" t="s" s="2">
-        <v>226</v>
+        <v>79</v>
       </c>
       <c r="AM174" t="s" s="2">
-        <v>227</v>
+        <v>132</v>
       </c>
       <c r="AN174" t="s" s="2">
         <v>79</v>
@@ -23067,9 +23087,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="175" hidden="true">
+    <row r="175">
       <c r="A175" t="s" s="2">
-        <v>665</v>
+        <v>630</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -23077,13 +23097,13 @@
       </c>
       <c r="D175" s="2"/>
       <c r="E175" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F175" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G175" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H175" t="s" s="2">
         <v>79</v>
@@ -23092,18 +23112,20 @@
         <v>90</v>
       </c>
       <c r="J175" t="s" s="2">
-        <v>91</v>
+        <v>186</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>229</v>
+        <v>631</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>230</v>
+        <v>632</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N175" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="N175" t="s" s="2">
+        <v>634</v>
+      </c>
       <c r="O175" t="s" s="2">
         <v>79</v>
       </c>
@@ -23127,13 +23149,13 @@
         <v>79</v>
       </c>
       <c r="W175" t="s" s="2">
-        <v>79</v>
+        <v>273</v>
       </c>
       <c r="X175" t="s" s="2">
-        <v>79</v>
+        <v>274</v>
       </c>
       <c r="Y175" t="s" s="2">
-        <v>79</v>
+        <v>275</v>
       </c>
       <c r="Z175" t="s" s="2">
         <v>79</v>
@@ -23151,10 +23173,10 @@
         <v>79</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>232</v>
+        <v>630</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AG175" t="s" s="2">
         <v>89</v>
@@ -23169,16 +23191,16 @@
         <v>79</v>
       </c>
       <c r="AK175" t="s" s="2">
-        <v>79</v>
+        <v>635</v>
       </c>
       <c r="AL175" t="s" s="2">
-        <v>233</v>
+        <v>278</v>
       </c>
       <c r="AM175" t="s" s="2">
-        <v>234</v>
+        <v>279</v>
       </c>
       <c r="AN175" t="s" s="2">
-        <v>79</v>
+        <v>280</v>
       </c>
       <c r="AO175" t="s" s="2">
         <v>79</v>
@@ -23186,7 +23208,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -23194,7 +23216,7 @@
       </c>
       <c r="D176" s="2"/>
       <c r="E176" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F176" t="s" s="2">
         <v>89</v>
@@ -23206,27 +23228,25 @@
         <v>79</v>
       </c>
       <c r="I176" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J176" t="s" s="2">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>236</v>
+        <v>199</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>237</v>
+        <v>200</v>
       </c>
       <c r="M176" s="2"/>
-      <c r="N176" t="s" s="2">
-        <v>238</v>
-      </c>
+      <c r="N176" s="2"/>
       <c r="O176" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P176" s="2"/>
       <c r="Q176" t="s" s="2">
-        <v>718</v>
+        <v>79</v>
       </c>
       <c r="R176" t="s" s="2">
         <v>79</v>
@@ -23268,7 +23288,7 @@
         <v>79</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>77</v>
@@ -23280,7 +23300,7 @@
         <v>79</v>
       </c>
       <c r="AI176" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ176" t="s" s="2">
         <v>79</v>
@@ -23289,10 +23309,10 @@
         <v>79</v>
       </c>
       <c r="AL176" t="s" s="2">
-        <v>241</v>
+        <v>79</v>
       </c>
       <c r="AM176" t="s" s="2">
-        <v>242</v>
+        <v>202</v>
       </c>
       <c r="AN176" t="s" s="2">
         <v>79</v>
@@ -23303,18 +23323,18 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>668</v>
+        <v>657</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="D177" s="2"/>
       <c r="E177" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F177" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G177" t="s" s="2">
         <v>79</v>
@@ -23323,21 +23343,21 @@
         <v>79</v>
       </c>
       <c r="I177" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J177" t="s" s="2">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>244</v>
+        <v>136</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="M177" s="2"/>
-      <c r="N177" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="M177" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="N177" s="2"/>
       <c r="O177" t="s" s="2">
         <v>79</v>
       </c>
@@ -23373,31 +23393,31 @@
         <v>79</v>
       </c>
       <c r="AA177" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="AB177" t="s" s="2">
-        <v>79</v>
+        <v>206</v>
       </c>
       <c r="AC177" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD177" t="s" s="2">
-        <v>79</v>
+        <v>194</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>247</v>
+        <v>207</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG177" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH177" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI177" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AJ177" t="s" s="2">
         <v>79</v>
@@ -23406,10 +23426,10 @@
         <v>79</v>
       </c>
       <c r="AL177" t="s" s="2">
-        <v>248</v>
+        <v>79</v>
       </c>
       <c r="AM177" t="s" s="2">
-        <v>249</v>
+        <v>202</v>
       </c>
       <c r="AN177" t="s" s="2">
         <v>79</v>
@@ -23420,7 +23440,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>669</v>
+        <v>658</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -23428,10 +23448,10 @@
       </c>
       <c r="D178" s="2"/>
       <c r="E178" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F178" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G178" t="s" s="2">
         <v>79</v>
@@ -23443,19 +23463,19 @@
         <v>90</v>
       </c>
       <c r="J178" t="s" s="2">
-        <v>251</v>
+        <v>209</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>252</v>
+        <v>718</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>253</v>
+        <v>719</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>254</v>
+        <v>212</v>
       </c>
       <c r="N178" t="s" s="2">
-        <v>255</v>
+        <v>213</v>
       </c>
       <c r="O178" t="s" s="2">
         <v>79</v>
@@ -23492,25 +23512,23 @@
         <v>79</v>
       </c>
       <c r="AA178" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB178" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="AB178" s="2"/>
       <c r="AC178" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD178" t="s" s="2">
-        <v>79</v>
+        <v>194</v>
       </c>
       <c r="AE178" t="s" s="2">
-        <v>256</v>
+        <v>214</v>
       </c>
       <c r="AF178" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG178" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH178" t="s" s="2">
         <v>79</v>
@@ -23525,10 +23543,10 @@
         <v>79</v>
       </c>
       <c r="AL178" t="s" s="2">
-        <v>257</v>
+        <v>215</v>
       </c>
       <c r="AM178" t="s" s="2">
-        <v>258</v>
+        <v>216</v>
       </c>
       <c r="AN178" t="s" s="2">
         <v>79</v>
@@ -23539,15 +23557,17 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>670</v>
-      </c>
-      <c r="B179" s="2"/>
+        <v>658</v>
+      </c>
+      <c r="B179" t="s" s="2">
+        <v>720</v>
+      </c>
       <c r="C179" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D179" s="2"/>
       <c r="E179" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F179" t="s" s="2">
         <v>89</v>
@@ -23562,19 +23582,19 @@
         <v>90</v>
       </c>
       <c r="J179" t="s" s="2">
-        <v>91</v>
+        <v>209</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>260</v>
+        <v>718</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>261</v>
+        <v>719</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>262</v>
+        <v>212</v>
       </c>
       <c r="N179" t="s" s="2">
-        <v>263</v>
+        <v>213</v>
       </c>
       <c r="O179" t="s" s="2">
         <v>79</v>
@@ -23623,13 +23643,13 @@
         <v>79</v>
       </c>
       <c r="AE179" t="s" s="2">
-        <v>264</v>
+        <v>214</v>
       </c>
       <c r="AF179" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG179" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH179" t="s" s="2">
         <v>79</v>
@@ -23644,10 +23664,10 @@
         <v>79</v>
       </c>
       <c r="AL179" t="s" s="2">
-        <v>265</v>
+        <v>215</v>
       </c>
       <c r="AM179" t="s" s="2">
-        <v>266</v>
+        <v>216</v>
       </c>
       <c r="AN179" t="s" s="2">
         <v>79</v>
@@ -23656,9 +23676,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>636</v>
+        <v>662</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -23672,29 +23692,25 @@
         <v>89</v>
       </c>
       <c r="G180" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H180" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I180" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J180" t="s" s="2">
-        <v>451</v>
+        <v>91</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>638</v>
+        <v>199</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="M180" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="N180" t="s" s="2">
-        <v>454</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="M180" s="2"/>
+      <c r="N180" s="2"/>
       <c r="O180" t="s" s="2">
         <v>79</v>
       </c>
@@ -23718,13 +23734,13 @@
         <v>79</v>
       </c>
       <c r="W180" t="s" s="2">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="X180" t="s" s="2">
-        <v>641</v>
+        <v>79</v>
       </c>
       <c r="Y180" t="s" s="2">
-        <v>642</v>
+        <v>79</v>
       </c>
       <c r="Z180" t="s" s="2">
         <v>79</v>
@@ -23742,7 +23758,7 @@
         <v>79</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>636</v>
+        <v>201</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>77</v>
@@ -23751,44 +23767,44 @@
         <v>89</v>
       </c>
       <c r="AH180" t="s" s="2">
-        <v>643</v>
+        <v>79</v>
       </c>
       <c r="AI180" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ180" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK180" t="s" s="2">
-        <v>644</v>
+        <v>79</v>
       </c>
       <c r="AL180" t="s" s="2">
-        <v>459</v>
+        <v>79</v>
       </c>
       <c r="AM180" t="s" s="2">
-        <v>460</v>
+        <v>202</v>
       </c>
       <c r="AN180" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO180" t="s" s="2">
-        <v>461</v>
+        <v>79</v>
       </c>
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="D181" s="2"/>
       <c r="E181" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F181" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G181" t="s" s="2">
         <v>79</v>
@@ -23800,15 +23816,17 @@
         <v>79</v>
       </c>
       <c r="J181" t="s" s="2">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>199</v>
+        <v>136</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="M181" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="M181" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="N181" s="2"/>
       <c r="O181" t="s" s="2">
         <v>79</v>
@@ -23845,31 +23863,31 @@
         <v>79</v>
       </c>
       <c r="AA181" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="AB181" t="s" s="2">
-        <v>79</v>
+        <v>206</v>
       </c>
       <c r="AC181" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD181" t="s" s="2">
-        <v>79</v>
+        <v>194</v>
       </c>
       <c r="AE181" t="s" s="2">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="AF181" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG181" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH181" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI181" t="s" s="2">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="AJ181" t="s" s="2">
         <v>79</v>
@@ -23892,18 +23910,18 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="D182" s="2"/>
       <c r="E182" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F182" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G182" t="s" s="2">
         <v>79</v>
@@ -23912,27 +23930,29 @@
         <v>79</v>
       </c>
       <c r="I182" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J182" t="s" s="2">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>136</v>
+        <v>220</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N182" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="N182" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="O182" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P182" s="2"/>
       <c r="Q182" t="s" s="2">
-        <v>79</v>
+        <v>290</v>
       </c>
       <c r="R182" t="s" s="2">
         <v>79</v>
@@ -23962,31 +23982,31 @@
         <v>79</v>
       </c>
       <c r="AA182" t="s" s="2">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="AB182" t="s" s="2">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="AC182" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD182" t="s" s="2">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="AE182" t="s" s="2">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="AF182" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG182" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH182" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI182" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AJ182" t="s" s="2">
         <v>79</v>
@@ -23995,10 +24015,10 @@
         <v>79</v>
       </c>
       <c r="AL182" t="s" s="2">
-        <v>79</v>
+        <v>226</v>
       </c>
       <c r="AM182" t="s" s="2">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="AN182" t="s" s="2">
         <v>79</v>
@@ -24007,9 +24027,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
@@ -24017,13 +24037,13 @@
       </c>
       <c r="D183" s="2"/>
       <c r="E183" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F183" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G183" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H183" t="s" s="2">
         <v>79</v>
@@ -24032,20 +24052,18 @@
         <v>90</v>
       </c>
       <c r="J183" t="s" s="2">
-        <v>674</v>
+        <v>91</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>675</v>
+        <v>229</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>676</v>
+        <v>230</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>677</v>
-      </c>
-      <c r="N183" t="s" s="2">
-        <v>678</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="N183" s="2"/>
       <c r="O183" t="s" s="2">
         <v>79</v>
       </c>
@@ -24093,7 +24111,7 @@
         <v>79</v>
       </c>
       <c r="AE183" t="s" s="2">
-        <v>679</v>
+        <v>232</v>
       </c>
       <c r="AF183" t="s" s="2">
         <v>77</v>
@@ -24114,10 +24132,10 @@
         <v>79</v>
       </c>
       <c r="AL183" t="s" s="2">
-        <v>680</v>
+        <v>233</v>
       </c>
       <c r="AM183" t="s" s="2">
-        <v>681</v>
+        <v>234</v>
       </c>
       <c r="AN183" t="s" s="2">
         <v>79</v>
@@ -24128,7 +24146,7 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>682</v>
+        <v>666</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -24136,7 +24154,7 @@
       </c>
       <c r="D184" s="2"/>
       <c r="E184" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F184" t="s" s="2">
         <v>89</v>
@@ -24145,7 +24163,7 @@
         <v>79</v>
       </c>
       <c r="H184" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I184" t="s" s="2">
         <v>90</v>
@@ -24154,23 +24172,21 @@
         <v>109</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>683</v>
+        <v>236</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>684</v>
+        <v>237</v>
       </c>
       <c r="M184" s="2"/>
       <c r="N184" t="s" s="2">
-        <v>685</v>
+        <v>238</v>
       </c>
       <c r="O184" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P184" t="s" s="2">
-        <v>686</v>
-      </c>
+      <c r="P184" s="2"/>
       <c r="Q184" t="s" s="2">
-        <v>79</v>
+        <v>721</v>
       </c>
       <c r="R184" t="s" s="2">
         <v>79</v>
@@ -24188,13 +24204,13 @@
         <v>79</v>
       </c>
       <c r="W184" t="s" s="2">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="X184" t="s" s="2">
-        <v>687</v>
+        <v>79</v>
       </c>
       <c r="Y184" t="s" s="2">
-        <v>688</v>
+        <v>79</v>
       </c>
       <c r="Z184" t="s" s="2">
         <v>79</v>
@@ -24212,7 +24228,7 @@
         <v>79</v>
       </c>
       <c r="AE184" t="s" s="2">
-        <v>689</v>
+        <v>240</v>
       </c>
       <c r="AF184" t="s" s="2">
         <v>77</v>
@@ -24233,10 +24249,10 @@
         <v>79</v>
       </c>
       <c r="AL184" t="s" s="2">
-        <v>690</v>
+        <v>241</v>
       </c>
       <c r="AM184" t="s" s="2">
-        <v>691</v>
+        <v>242</v>
       </c>
       <c r="AN184" t="s" s="2">
         <v>79</v>
@@ -24245,9 +24261,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>692</v>
+        <v>668</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -24255,13 +24271,13 @@
       </c>
       <c r="D185" s="2"/>
       <c r="E185" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F185" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G185" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H185" t="s" s="2">
         <v>79</v>
@@ -24273,14 +24289,14 @@
         <v>91</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>693</v>
+        <v>244</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>694</v>
+        <v>245</v>
       </c>
       <c r="M185" s="2"/>
       <c r="N185" t="s" s="2">
-        <v>695</v>
+        <v>246</v>
       </c>
       <c r="O185" t="s" s="2">
         <v>79</v>
@@ -24329,7 +24345,7 @@
         <v>79</v>
       </c>
       <c r="AE185" t="s" s="2">
-        <v>696</v>
+        <v>247</v>
       </c>
       <c r="AF185" t="s" s="2">
         <v>77</v>
@@ -24350,10 +24366,10 @@
         <v>79</v>
       </c>
       <c r="AL185" t="s" s="2">
-        <v>697</v>
+        <v>248</v>
       </c>
       <c r="AM185" t="s" s="2">
-        <v>698</v>
+        <v>249</v>
       </c>
       <c r="AN185" t="s" s="2">
         <v>79</v>
@@ -24362,9 +24378,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>699</v>
+        <v>669</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
@@ -24372,13 +24388,13 @@
       </c>
       <c r="D186" s="2"/>
       <c r="E186" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F186" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G186" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H186" t="s" s="2">
         <v>79</v>
@@ -24387,24 +24403,26 @@
         <v>90</v>
       </c>
       <c r="J186" t="s" s="2">
-        <v>103</v>
+        <v>251</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>700</v>
+        <v>252</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>701</v>
-      </c>
-      <c r="M186" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="M186" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="N186" t="s" s="2">
-        <v>702</v>
+        <v>255</v>
       </c>
       <c r="O186" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P186" s="2"/>
       <c r="Q186" t="s" s="2">
-        <v>703</v>
+        <v>79</v>
       </c>
       <c r="R186" t="s" s="2">
         <v>79</v>
@@ -24446,7 +24464,7 @@
         <v>79</v>
       </c>
       <c r="AE186" t="s" s="2">
-        <v>704</v>
+        <v>256</v>
       </c>
       <c r="AF186" t="s" s="2">
         <v>77</v>
@@ -24455,7 +24473,7 @@
         <v>89</v>
       </c>
       <c r="AH186" t="s" s="2">
-        <v>705</v>
+        <v>79</v>
       </c>
       <c r="AI186" t="s" s="2">
         <v>101</v>
@@ -24467,10 +24485,10 @@
         <v>79</v>
       </c>
       <c r="AL186" t="s" s="2">
-        <v>697</v>
+        <v>257</v>
       </c>
       <c r="AM186" t="s" s="2">
-        <v>706</v>
+        <v>258</v>
       </c>
       <c r="AN186" t="s" s="2">
         <v>79</v>
@@ -24481,18 +24499,20 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>707</v>
-      </c>
-      <c r="B187" s="2"/>
+        <v>658</v>
+      </c>
+      <c r="B187" t="s" s="2">
+        <v>722</v>
+      </c>
       <c r="C187" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D187" s="2"/>
       <c r="E187" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F187" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G187" t="s" s="2">
         <v>90</v>
@@ -24504,26 +24524,26 @@
         <v>90</v>
       </c>
       <c r="J187" t="s" s="2">
-        <v>109</v>
+        <v>209</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>708</v>
+        <v>723</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>708</v>
+        <v>719</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>709</v>
+        <v>212</v>
       </c>
       <c r="N187" t="s" s="2">
-        <v>710</v>
+        <v>213</v>
       </c>
       <c r="O187" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P187" s="2"/>
       <c r="Q187" t="s" s="2">
-        <v>711</v>
+        <v>79</v>
       </c>
       <c r="R187" t="s" s="2">
         <v>79</v>
@@ -24565,13 +24585,13 @@
         <v>79</v>
       </c>
       <c r="AE187" t="s" s="2">
-        <v>712</v>
+        <v>214</v>
       </c>
       <c r="AF187" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG187" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH187" t="s" s="2">
         <v>79</v>
@@ -24586,10 +24606,10 @@
         <v>79</v>
       </c>
       <c r="AL187" t="s" s="2">
-        <v>697</v>
+        <v>215</v>
       </c>
       <c r="AM187" t="s" s="2">
-        <v>713</v>
+        <v>216</v>
       </c>
       <c r="AN187" t="s" s="2">
         <v>79</v>
@@ -24598,9 +24618,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>645</v>
+        <v>662</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -24614,7 +24634,7 @@
         <v>89</v>
       </c>
       <c r="G188" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H188" t="s" s="2">
         <v>79</v>
@@ -24623,20 +24643,16 @@
         <v>79</v>
       </c>
       <c r="J188" t="s" s="2">
-        <v>186</v>
+        <v>91</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>646</v>
+        <v>199</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>647</v>
-      </c>
-      <c r="M188" t="s" s="2">
-        <v>648</v>
-      </c>
-      <c r="N188" t="s" s="2">
-        <v>467</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="M188" s="2"/>
+      <c r="N188" s="2"/>
       <c r="O188" t="s" s="2">
         <v>79</v>
       </c>
@@ -24660,13 +24676,13 @@
         <v>79</v>
       </c>
       <c r="W188" t="s" s="2">
-        <v>273</v>
+        <v>79</v>
       </c>
       <c r="X188" t="s" s="2">
-        <v>468</v>
+        <v>79</v>
       </c>
       <c r="Y188" t="s" s="2">
-        <v>469</v>
+        <v>79</v>
       </c>
       <c r="Z188" t="s" s="2">
         <v>79</v>
@@ -24684,7 +24700,7 @@
         <v>79</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>645</v>
+        <v>201</v>
       </c>
       <c r="AF188" t="s" s="2">
         <v>77</v>
@@ -24693,10 +24709,10 @@
         <v>89</v>
       </c>
       <c r="AH188" t="s" s="2">
-        <v>649</v>
+        <v>79</v>
       </c>
       <c r="AI188" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ188" t="s" s="2">
         <v>79</v>
@@ -24705,10 +24721,10 @@
         <v>79</v>
       </c>
       <c r="AL188" t="s" s="2">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="AM188" t="s" s="2">
-        <v>471</v>
+        <v>202</v>
       </c>
       <c r="AN188" t="s" s="2">
         <v>79</v>
@@ -24719,11 +24735,11 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>650</v>
+        <v>663</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
-        <v>473</v>
+        <v>134</v>
       </c>
       <c r="D189" s="2"/>
       <c r="E189" t="s" s="2">
@@ -24742,20 +24758,18 @@
         <v>79</v>
       </c>
       <c r="J189" t="s" s="2">
-        <v>186</v>
+        <v>135</v>
       </c>
       <c r="K189" t="s" s="2">
-        <v>474</v>
+        <v>136</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>475</v>
+        <v>204</v>
       </c>
       <c r="M189" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="N189" t="s" s="2">
-        <v>477</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="N189" s="2"/>
       <c r="O189" t="s" s="2">
         <v>79</v>
       </c>
@@ -24779,31 +24793,31 @@
         <v>79</v>
       </c>
       <c r="W189" t="s" s="2">
-        <v>273</v>
+        <v>79</v>
       </c>
       <c r="X189" t="s" s="2">
-        <v>478</v>
+        <v>79</v>
       </c>
       <c r="Y189" t="s" s="2">
-        <v>479</v>
+        <v>79</v>
       </c>
       <c r="Z189" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA189" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="AB189" t="s" s="2">
-        <v>79</v>
+        <v>206</v>
       </c>
       <c r="AC189" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD189" t="s" s="2">
-        <v>79</v>
+        <v>194</v>
       </c>
       <c r="AE189" t="s" s="2">
-        <v>650</v>
+        <v>207</v>
       </c>
       <c r="AF189" t="s" s="2">
         <v>77</v>
@@ -24815,30 +24829,30 @@
         <v>79</v>
       </c>
       <c r="AI189" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AJ189" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK189" t="s" s="2">
-        <v>480</v>
+        <v>79</v>
       </c>
       <c r="AL189" t="s" s="2">
-        <v>481</v>
+        <v>79</v>
       </c>
       <c r="AM189" t="s" s="2">
-        <v>482</v>
+        <v>202</v>
       </c>
       <c r="AN189" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO189" t="s" s="2">
-        <v>483</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="190" hidden="true">
+    <row r="190">
       <c r="A190" t="s" s="2">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -24846,41 +24860,41 @@
       </c>
       <c r="D190" s="2"/>
       <c r="E190" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F190" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G190" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H190" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I190" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J190" t="s" s="2">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="K190" t="s" s="2">
-        <v>652</v>
+        <v>220</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>653</v>
+        <v>221</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>555</v>
+        <v>222</v>
       </c>
       <c r="N190" t="s" s="2">
-        <v>556</v>
+        <v>223</v>
       </c>
       <c r="O190" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P190" s="2"/>
       <c r="Q190" t="s" s="2">
-        <v>79</v>
+        <v>297</v>
       </c>
       <c r="R190" t="s" s="2">
         <v>79</v>
@@ -24922,13 +24936,13 @@
         <v>79</v>
       </c>
       <c r="AE190" t="s" s="2">
-        <v>651</v>
+        <v>225</v>
       </c>
       <c r="AF190" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG190" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH190" t="s" s="2">
         <v>79</v>
@@ -24943,20 +24957,1908 @@
         <v>79</v>
       </c>
       <c r="AL190" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AM190" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AN190" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO190" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="191" hidden="true">
+      <c r="A191" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="B191" s="2"/>
+      <c r="C191" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D191" s="2"/>
+      <c r="E191" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F191" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G191" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H191" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I191" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J191" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K191" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L191" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="M191" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="N191" s="2"/>
+      <c r="O191" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P191" s="2"/>
+      <c r="Q191" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R191" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S191" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T191" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U191" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V191" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W191" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X191" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y191" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z191" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA191" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB191" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC191" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD191" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE191" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AF191" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG191" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH191" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI191" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ191" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK191" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL191" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AM191" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AN191" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO191" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="B192" s="2"/>
+      <c r="C192" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D192" s="2"/>
+      <c r="E192" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F192" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G192" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H192" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I192" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J192" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="K192" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L192" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="M192" s="2"/>
+      <c r="N192" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="O192" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P192" s="2"/>
+      <c r="Q192" t="s" s="2">
+        <v>724</v>
+      </c>
+      <c r="R192" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S192" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T192" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U192" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V192" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W192" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X192" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y192" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z192" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA192" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB192" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC192" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD192" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE192" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AF192" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG192" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH192" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI192" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ192" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK192" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL192" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AM192" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AN192" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO192" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="193" hidden="true">
+      <c r="A193" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="B193" s="2"/>
+      <c r="C193" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D193" s="2"/>
+      <c r="E193" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F193" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G193" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H193" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I193" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J193" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K193" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="L193" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="M193" s="2"/>
+      <c r="N193" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="O193" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P193" s="2"/>
+      <c r="Q193" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R193" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S193" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T193" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U193" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V193" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W193" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X193" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y193" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z193" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA193" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB193" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC193" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD193" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE193" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AF193" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG193" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH193" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI193" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ193" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK193" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL193" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AM193" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AN193" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO193" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="194" hidden="true">
+      <c r="A194" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="B194" s="2"/>
+      <c r="C194" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D194" s="2"/>
+      <c r="E194" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F194" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G194" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H194" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I194" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J194" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="K194" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L194" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="M194" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="N194" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="O194" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P194" s="2"/>
+      <c r="Q194" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R194" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S194" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T194" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U194" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V194" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W194" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X194" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y194" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z194" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA194" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB194" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC194" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD194" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE194" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AF194" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG194" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH194" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI194" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ194" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK194" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL194" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AM194" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AN194" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO194" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="195" hidden="true">
+      <c r="A195" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="B195" s="2"/>
+      <c r="C195" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D195" s="2"/>
+      <c r="E195" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F195" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G195" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H195" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I195" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J195" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K195" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L195" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="M195" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="N195" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="O195" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P195" s="2"/>
+      <c r="Q195" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R195" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S195" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T195" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U195" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V195" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W195" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X195" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y195" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z195" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA195" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB195" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC195" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD195" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE195" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AF195" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG195" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH195" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI195" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ195" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK195" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL195" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AM195" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AN195" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO195" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="B196" s="2"/>
+      <c r="C196" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D196" s="2"/>
+      <c r="E196" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F196" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G196" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H196" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I196" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J196" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="K196" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="L196" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="M196" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="N196" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="O196" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P196" s="2"/>
+      <c r="Q196" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R196" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S196" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T196" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U196" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V196" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W196" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="X196" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="Y196" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="Z196" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA196" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB196" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC196" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD196" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE196" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="AF196" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG196" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH196" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="AI196" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ196" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK196" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="AL196" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AM196" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AN196" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO196" t="s" s="2">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="197" hidden="true">
+      <c r="A197" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="B197" s="2"/>
+      <c r="C197" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D197" s="2"/>
+      <c r="E197" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F197" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G197" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H197" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I197" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J197" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K197" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L197" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="M197" s="2"/>
+      <c r="N197" s="2"/>
+      <c r="O197" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P197" s="2"/>
+      <c r="Q197" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R197" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S197" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T197" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U197" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V197" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W197" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X197" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y197" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z197" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA197" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB197" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC197" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD197" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE197" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AF197" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG197" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH197" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI197" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ197" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK197" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL197" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM197" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AN197" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO197" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="198" hidden="true">
+      <c r="A198" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="B198" s="2"/>
+      <c r="C198" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="D198" s="2"/>
+      <c r="E198" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F198" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G198" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H198" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I198" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J198" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="K198" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L198" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M198" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="N198" s="2"/>
+      <c r="O198" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P198" s="2"/>
+      <c r="Q198" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R198" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S198" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T198" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U198" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V198" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W198" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X198" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y198" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z198" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA198" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AB198" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AC198" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD198" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AE198" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AF198" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG198" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH198" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI198" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AJ198" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK198" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL198" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM198" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AN198" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO198" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="B199" s="2"/>
+      <c r="C199" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D199" s="2"/>
+      <c r="E199" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F199" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G199" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H199" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I199" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J199" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="K199" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="L199" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="M199" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="N199" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="O199" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P199" s="2"/>
+      <c r="Q199" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R199" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S199" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T199" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U199" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V199" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W199" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X199" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y199" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z199" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA199" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB199" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC199" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD199" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE199" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="AF199" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG199" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH199" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI199" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ199" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK199" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL199" t="s" s="2">
+        <v>683</v>
+      </c>
+      <c r="AM199" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="AN199" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO199" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="200" hidden="true">
+      <c r="A200" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="B200" s="2"/>
+      <c r="C200" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D200" s="2"/>
+      <c r="E200" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F200" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G200" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H200" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="I200" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J200" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="K200" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="L200" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="M200" s="2"/>
+      <c r="N200" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="O200" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P200" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="Q200" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R200" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S200" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T200" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U200" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V200" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W200" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="X200" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="Y200" t="s" s="2">
+        <v>691</v>
+      </c>
+      <c r="Z200" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA200" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB200" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC200" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD200" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE200" t="s" s="2">
+        <v>692</v>
+      </c>
+      <c r="AF200" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG200" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH200" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI200" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ200" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK200" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL200" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="AM200" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="AN200" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO200" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="B201" s="2"/>
+      <c r="C201" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D201" s="2"/>
+      <c r="E201" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F201" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G201" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H201" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I201" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J201" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K201" t="s" s="2">
+        <v>696</v>
+      </c>
+      <c r="L201" t="s" s="2">
+        <v>697</v>
+      </c>
+      <c r="M201" s="2"/>
+      <c r="N201" t="s" s="2">
+        <v>698</v>
+      </c>
+      <c r="O201" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P201" s="2"/>
+      <c r="Q201" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R201" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S201" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T201" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U201" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V201" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W201" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X201" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y201" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z201" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA201" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB201" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC201" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD201" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE201" t="s" s="2">
+        <v>699</v>
+      </c>
+      <c r="AF201" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG201" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH201" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI201" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ201" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK201" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL201" t="s" s="2">
+        <v>700</v>
+      </c>
+      <c r="AM201" t="s" s="2">
+        <v>701</v>
+      </c>
+      <c r="AN201" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO201" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s" s="2">
+        <v>702</v>
+      </c>
+      <c r="B202" s="2"/>
+      <c r="C202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D202" s="2"/>
+      <c r="E202" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F202" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G202" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I202" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J202" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K202" t="s" s="2">
+        <v>703</v>
+      </c>
+      <c r="L202" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="M202" s="2"/>
+      <c r="N202" t="s" s="2">
+        <v>705</v>
+      </c>
+      <c r="O202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P202" s="2"/>
+      <c r="Q202" t="s" s="2">
+        <v>706</v>
+      </c>
+      <c r="R202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE202" t="s" s="2">
+        <v>707</v>
+      </c>
+      <c r="AF202" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG202" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH202" t="s" s="2">
+        <v>708</v>
+      </c>
+      <c r="AI202" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL202" t="s" s="2">
+        <v>700</v>
+      </c>
+      <c r="AM202" t="s" s="2">
+        <v>709</v>
+      </c>
+      <c r="AN202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO202" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s" s="2">
+        <v>710</v>
+      </c>
+      <c r="B203" s="2"/>
+      <c r="C203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D203" s="2"/>
+      <c r="E203" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F203" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G203" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I203" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J203" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="K203" t="s" s="2">
+        <v>711</v>
+      </c>
+      <c r="L203" t="s" s="2">
+        <v>711</v>
+      </c>
+      <c r="M203" t="s" s="2">
+        <v>712</v>
+      </c>
+      <c r="N203" t="s" s="2">
+        <v>713</v>
+      </c>
+      <c r="O203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P203" s="2"/>
+      <c r="Q203" t="s" s="2">
+        <v>714</v>
+      </c>
+      <c r="R203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE203" t="s" s="2">
+        <v>715</v>
+      </c>
+      <c r="AF203" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG203" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI203" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL203" t="s" s="2">
+        <v>700</v>
+      </c>
+      <c r="AM203" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="AN203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO203" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="B204" s="2"/>
+      <c r="C204" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D204" s="2"/>
+      <c r="E204" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F204" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G204" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H204" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I204" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J204" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K204" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="L204" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="M204" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="N204" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="O204" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P204" s="2"/>
+      <c r="Q204" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R204" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S204" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T204" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U204" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V204" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W204" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="X204" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="Y204" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="Z204" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA204" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB204" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC204" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD204" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE204" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="AF204" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG204" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH204" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="AI204" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ204" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK204" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL204" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AM204" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AN204" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO204" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="205" hidden="true">
+      <c r="A205" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="B205" s="2"/>
+      <c r="C205" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="D205" s="2"/>
+      <c r="E205" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F205" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G205" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H205" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I205" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J205" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K205" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="L205" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="M205" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="N205" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="O205" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P205" s="2"/>
+      <c r="Q205" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R205" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S205" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T205" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U205" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V205" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W205" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="X205" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="Y205" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="Z205" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA205" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB205" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC205" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD205" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE205" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="AF205" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG205" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH205" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI205" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ205" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK205" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AL205" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AM205" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AN205" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO205" t="s" s="2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="206" hidden="true">
+      <c r="A206" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="B206" s="2"/>
+      <c r="C206" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D206" s="2"/>
+      <c r="E206" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F206" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G206" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H206" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I206" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J206" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K206" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="L206" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="M206" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="N206" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="O206" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P206" s="2"/>
+      <c r="Q206" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R206" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S206" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T206" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U206" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V206" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W206" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X206" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y206" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z206" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA206" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB206" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC206" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD206" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE206" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="AF206" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG206" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH206" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI206" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ206" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK206" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL206" t="s" s="2">
         <v>558</v>
       </c>
-      <c r="AM190" t="s" s="2">
+      <c r="AM206" t="s" s="2">
         <v>559</v>
       </c>
-      <c r="AN190" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO190" t="s" s="2">
+      <c r="AN206" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO206" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO190">
+  <autoFilter ref="A1:AO206">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -24966,7 +26868,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI189">
+  <conditionalFormatting sqref="A2:AI205">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
